--- a/incomes.xlsx
+++ b/incomes.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -422,32 +422,18 @@
         <v>💼</v>
       </c>
       <c r="B2">
-        <v>23456</v>
+        <v>12</v>
       </c>
       <c r="C2" t="str">
-        <v>3456</v>
+        <v>grosery</v>
       </c>
       <c r="D2" s="1">
-        <v>45960.708816342594</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>💼</v>
-      </c>
-      <c r="B3">
-        <v>34567</v>
-      </c>
-      <c r="C3" t="str">
-        <v>ertytyu</v>
-      </c>
-      <c r="D3" s="1">
-        <v>45960.70864596065</v>
+        <v>45962.80105572916</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D2"/>
   </ignoredErrors>
 </worksheet>
 </file>